--- a/数据整理/stocks/A股/上证主板/600612-老凤祥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600612-老凤祥.xlsx
@@ -451,295 +451,395 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>910007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2869</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007887</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2869</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6735</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3256</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2794</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008091</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1722</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>000551</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>信诚幸福消费混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>87.86</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>4.81</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>910007</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方红启元三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>92.23</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>169107</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东方红恒阳五年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>88.31</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008092</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001302</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>9.13</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002207</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>9.13</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>004249</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>安信中国制造2025沪港深灵活配置混合</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>80.01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>3.35</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007887</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东方红启元三年持有期混合B</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>92.23</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008091</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中信保诚红利精选混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>88.62</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008092</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中信保诚红利精选混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>88.62</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -749,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +870,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -790,26 +900,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003912</t>
+          <t>910007</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰达宏利启富灵活配置混合A</t>
+          <t>东方红启元三年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.61</t>
+          <t>83.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2446</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -818,26 +938,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003913</t>
+          <t>007887</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰达宏利启富灵活配置混合C</t>
+          <t>东方红启元三年持有期混合B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>36.61</t>
+          <t>70.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4227</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -846,26 +976,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000507</t>
+          <t>169107</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰达宏利宏达混合A</t>
+          <t>东方红恒阳五年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24.78</t>
+          <t>26.46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6246</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000508</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰达宏利宏达混合B</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24.78</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7783</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004393</t>
+          <t>290002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>安信合作创新主题沪港深灵活配置混合</t>
+          <t>泰信先行策略混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>76.71</t>
+          <t>9.83</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>63.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4050</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>162205</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰达宏利风险预算混合</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28.61</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2962</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>290002</t>
+          <t>121002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰信先行策略混合</t>
+          <t>国投瑞银景气行业混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>63.08</t>
+          <t>9.11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>57.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>008091</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>中信保诚红利精选混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.99</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>9.68</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>008893</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>创金合信鑫利混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.99</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>9.68</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+          <t>45.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>121002</t>
+          <t>008092</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国投瑞银景气行业混合</t>
+          <t>中信保诚红利精选混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>57.36</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>162211</t>
+          <t>162205</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>泰达宏利品质生活混合</t>
+          <t>泰达宏利风险预算混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>79.69</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008893</t>
+          <t>003028</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>创金合信鑫利混合A</t>
+          <t>安信新优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>45.01</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>34.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>008894</t>
+          <t>003029</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>创金合信鑫利混合C</t>
+          <t>安信新优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>45.01</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
+          <t>34.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008909</t>
+          <t>000507</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>创金合信鑫益混合A</t>
+          <t>泰达宏利宏达混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>67.63</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008910</t>
+          <t>004393</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>创金合信鑫益混合C</t>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>67.63</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
+          <t>76.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>169107</t>
+          <t>008894</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>东方红恒阳五年定期开放混合</t>
+          <t>创金合信鑫利混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>85.79</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
+          <t>45.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>003028</t>
+          <t>003912</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>安信新优选灵活配置混合A</t>
+          <t>泰达宏利启富灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>34.57</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1266,25 +1546,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>003029</t>
+          <t>008909</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>安信新优选灵活配置混合C</t>
+          <t>创金合信鑫益混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>34.57</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+          <t>67.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1294,25 +1584,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008091</t>
+          <t>000508</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中信保诚红利精选混合A</t>
+          <t>泰达宏利宏达混合B</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>88.79</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>008092</t>
+          <t>008910</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中信保诚红利精选混合C</t>
+          <t>创金合信鑫益混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>88.79</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
+          <t>67.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>910007</t>
+          <t>162211</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>东方红启元三年持有期混合A</t>
+          <t>泰达宏利品质生活混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>86.51</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>4</v>
+          <t>79.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>007887</t>
+          <t>003913</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>东方红启元三年持有期混合B</t>
+          <t>泰达宏利启富灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>86.51</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>4</v>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600612-老凤祥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600612-老凤祥.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1733,4 +1734,592 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>910007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0055</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007887</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2430</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5518</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4465</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6043</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008091</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008092</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>33.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>55.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>55.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600612-老凤祥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600612-老凤祥.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2322,4 +2323,706 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>910007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3880</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007887</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7474</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3593</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7885</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3233</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2811</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>28.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008091</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008092</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>59.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>59.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600612-老凤祥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600612-老凤祥.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3025,4 +3026,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600612-老凤祥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600612-老凤祥.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3034,7 +3035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3045,17 +3046,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3065,14 +3086,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.44</v>
+          <t>910007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2018</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3081,14 +3124,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.17</v>
+          <t>007887</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>71.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7176</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3097,14 +3162,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.5</v>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3428</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3113,13 +3200,643 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5410</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2799</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2124</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1974</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008091</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008092</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>52.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>52.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>12.21</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600612-老凤祥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600612-老凤祥.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3735,7 +3736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3746,17 +3747,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3766,14 +3787,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.9</v>
+          <t>910007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1892</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3782,14 +3825,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.44</v>
+          <t>007887</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7467</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3798,14 +3863,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.17</v>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9772</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3814,14 +3901,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.5</v>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7491</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3830,13 +3939,773 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3079</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3002</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2286</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>39.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>30.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001715</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>30.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001998</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>39.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.210000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>12.21</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600612-老凤祥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600612-老凤祥.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4588,7 +4589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4599,17 +4600,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4619,14 +4640,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.210000000000001</v>
+          <t>910007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>73.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0717</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4635,14 +4678,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.9</v>
+          <t>007887</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6545</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4651,14 +4716,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.44</v>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9396</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -4667,14 +4754,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.17</v>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8700</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -4683,14 +4792,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>22</v>
-      </c>
-      <c r="D6" t="n">
-        <v>13.5</v>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4481</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4830,903 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3540</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>36.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2826</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2411</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2340</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>35.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>35.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>27.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>27.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>57.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012233</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商安盈债券C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>57.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.710000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.210000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>12.21</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600612-老凤祥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600612-老凤祥.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,37 +468,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -508,36 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>910007</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方红启元三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>88.39</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.23</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.2869</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.710000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -546,36 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007887</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方红启元三年持有期混合B</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>88.39</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.23</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4.2869</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -584,36 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001302</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>18.33</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.13</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.6735</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.9</v>
       </c>
     </row>
     <row r="5">
@@ -622,36 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>169107</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东方红恒阳五年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>27.79</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.31</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.3256</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.44</v>
       </c>
     </row>
     <row r="6">
@@ -660,36 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002207</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>9.13</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2794</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.17</v>
       </c>
     </row>
     <row r="7">
@@ -698,36 +568,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008091</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中信保诚红利精选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>88.62</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1722</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="8">
@@ -736,112 +584,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000551</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>信诚幸福消费混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>87.86</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1082</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008092</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中信保诚红利精选混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.62</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0711</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004249</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>80.01</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0100</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12.21</v>
       </c>
     </row>
   </sheetData>
@@ -855,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -876,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -916,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>73.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.51</t>
+          <t>78.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.26</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.2446</t>
+          <t>3.0717</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -954,26 +704,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>70.65</t>
+          <t>63.81</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.51</t>
+          <t>78.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.26</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.4227</t>
+          <t>2.6545</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -992,26 +742,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26.46</t>
+          <t>23.97</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.79</t>
+          <t>82.23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.6246</t>
+          <t>0.9396</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1030,26 +780,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>10.93</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.99</t>
+          <t>90.10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.68</t>
+          <t>7.96</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7783</t>
+          <t>0.8700</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1058,36 +808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>290002</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰信先行策略混合</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.83</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>63.08</t>
+          <t>90.10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>7.96</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4050</t>
+          <t>0.4481</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1096,36 +846,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>001186</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>富国文体健康股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>12.51</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.99</t>
+          <t>84.20</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.68</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2962</t>
+          <t>0.3540</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1134,36 +884,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>121002</t>
+          <t>217024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国投瑞银景气行业混合</t>
+          <t>招商安盈债券</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9.11</t>
+          <t>36.70</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>57.36</t>
+          <t>20.13</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1922</t>
+          <t>0.2826</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1172,36 +922,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008091</t>
+          <t>121010</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中信保诚红利精选混合A</t>
+          <t>国投瑞银瑞源灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>10.96</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>88.79</t>
+          <t>74.32</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0947</t>
+          <t>0.2411</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1210,36 +960,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008893</t>
+          <t>167508</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>创金合信鑫利混合A</t>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>45.01</t>
+          <t>86.85</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0868</t>
+          <t>0.2340</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1248,36 +998,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008092</t>
+          <t>003345</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中信保诚红利精选混合C</t>
+          <t>安信新成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>88.79</t>
+          <t>33.00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0698</t>
+          <t>0.1055</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1286,32 +1036,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>162205</t>
+          <t>003028</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>泰达宏利风险预算混合</t>
+          <t>安信新优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>28.61</t>
+          <t>35.05</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0691</t>
+          <t>0.0898</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1324,36 +1074,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>003028</t>
+          <t>003029</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>安信新优选灵活配置混合A</t>
+          <t>安信新优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>34.57</t>
+          <t>35.05</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0444</t>
+          <t>0.0881</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1362,32 +1112,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>003029</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>安信新优选灵活配置混合C</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>34.57</t>
+          <t>94.02</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0439</t>
+          <t>0.0753</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1400,36 +1150,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000507</t>
+          <t>001399</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>泰达宏利宏达混合A</t>
+          <t>安信鑫安得利灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>24.78</t>
+          <t>27.23</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0373</t>
+          <t>0.0516</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1438,36 +1188,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>004393</t>
+          <t>009766</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>安信合作创新主题沪港深灵活配置混合</t>
+          <t>安信平稳双利3个月持有期混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>76.71</t>
+          <t>32.18</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0216</t>
+          <t>0.0513</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1476,36 +1226,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008894</t>
+          <t>004393</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>创金合信鑫利混合C</t>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>45.01</t>
+          <t>87.08</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0211</t>
+          <t>0.0329</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1514,32 +1264,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>003912</t>
+          <t>004249</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>泰达宏利启富灵活配置混合A</t>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>36.61</t>
+          <t>88.16</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0135</t>
+          <t>0.0312</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1552,36 +1302,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>008909</t>
+          <t>001400</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>创金合信鑫益混合A</t>
+          <t>安信鑫安得利灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>67.63</t>
+          <t>27.23</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0126</t>
+          <t>0.0283</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1590,36 +1340,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>000508</t>
+          <t>003346</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>泰达宏利宏达混合B</t>
+          <t>安信新成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>24.78</t>
+          <t>33.00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0107</t>
+          <t>0.0178</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1628,32 +1378,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>008910</t>
+          <t>001891</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>创金合信鑫益混合C</t>
+          <t>中欧成长优选回报灵活配置混合E</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>67.63</t>
+          <t>94.02</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0085</t>
+          <t>0.0168</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1666,36 +1416,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>162211</t>
+          <t>009767</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>泰达宏利品质生活混合</t>
+          <t>安信平稳双利3个月持有期混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>79.69</t>
+          <t>32.18</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0055</t>
+          <t>0.0108</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1704,36 +1454,148 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>003913</t>
+          <t>011125</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>泰达宏利启富灵活配置混合C</t>
+          <t>富国文体健康股票C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>36.61</t>
+          <t>84.20</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0018</t>
+          <t>0.0096</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>57.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012233</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商安盈债券C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>57.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1747,7 +1609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1768,7 +1630,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1808,26 +1670,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.97</t>
+          <t>69.33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.87</t>
+          <t>74.32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.0055</t>
+          <t>3.1892</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1846,26 +1708,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>74.57</t>
+          <t>59.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.87</t>
+          <t>74.32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.2430</t>
+          <t>2.7467</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1884,26 +1746,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27.91</t>
+          <t>22.26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.19</t>
+          <t>78.45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.5518</t>
+          <t>0.9772</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1922,26 +1784,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16.18</t>
+          <t>8.61</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.59</t>
+          <t>91.91</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.4465</t>
+          <t>0.7491</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1950,36 +1812,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>167508</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.59</t>
+          <t>89.42</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.6043</t>
+          <t>0.3079</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1988,36 +1850,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008091</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中信保诚红利精选混合A</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.59</t>
+          <t>91.91</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0905</t>
+          <t>0.3002</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -2026,36 +1888,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008092</t>
+          <t>161609</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中信保诚红利精选混合C</t>
+          <t>融通动力先锋混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.59</t>
+          <t>80.93</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0496</t>
+          <t>0.2286</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -2064,36 +1926,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003028</t>
+          <t>009766</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>安信新优选灵活配置混合A</t>
+          <t>安信平稳双利3个月持有期混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>33.39</t>
+          <t>39.45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0479</t>
+          <t>0.1146</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -2102,36 +1964,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003029</t>
+          <t>001152</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>安信新优选灵活配置混合C</t>
+          <t>融通新区域新经济灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>33.39</t>
+          <t>80.98</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0472</t>
+          <t>0.0902</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -2140,32 +2002,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009766</t>
+          <t>510081</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>安信平稳双利3个月持有期混合A</t>
+          <t>长盛动态精选混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>29.19</t>
+          <t>60.76</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0456</t>
+          <t>0.0901</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -2178,36 +2040,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004393</t>
+          <t>003345</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>安信合作创新主题沪港深灵活配置混合</t>
+          <t>安信新成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>85.47</t>
+          <t>30.76</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0259</t>
+          <t>0.0890</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -2216,32 +2078,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009767</t>
+          <t>001891</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>安信平稳双利3个月持有期混合C</t>
+          <t>中欧成长优选回报灵活配置混合E</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>29.19</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0094</t>
+          <t>0.0763</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -2254,36 +2116,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>750005</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>安信平稳增长混合A</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>55.64</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0052</t>
+          <t>0.0763</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -2292,36 +2154,300 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>001715</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>30.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001998</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>39.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>002035</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>安信平稳增长混合C</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>55.64</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2356,7 +2482,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2401,17 +2527,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>77.04</t>
+          <t>81.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.3880</t>
+          <t>4.2018</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2434,22 +2560,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>69.14</t>
+          <t>71.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77.04</t>
+          <t>81.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.7474</t>
+          <t>3.7176</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2472,22 +2598,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25.99</t>
+          <t>26.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>78.54</t>
+          <t>85.35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.3593</t>
+          <t>1.3428</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2500,32 +2626,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>8.74</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7885</t>
+          <t>0.5410</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2538,36 +2664,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>167508</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>91.66</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3233</t>
+          <t>0.2799</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2576,36 +2702,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>167508</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>安信价值发现两年定期开放混合（LOF）</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>8.74</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2811</t>
+          <t>0.2124</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -2624,22 +2750,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>23.74</t>
+          <t>29.74</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1135</t>
+          <t>0.1974</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -2652,32 +2778,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003345</t>
+          <t>003028</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>安信新成长灵活配置混合A</t>
+          <t>安信新优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7.32</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28.82</t>
+          <t>33.94</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0886</t>
+          <t>0.1017</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -2690,12 +2816,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003028</t>
+          <t>003029</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>安信新优选灵活配置混合A</t>
+          <t>安信新优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2705,7 +2831,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>34.42</t>
+          <t>33.94</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -2719,7 +2845,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -2728,36 +2854,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>003029</t>
+          <t>008091</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>安信新优选灵活配置混合C</t>
+          <t>中信保诚红利精选混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>34.42</t>
+          <t>89.93</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0755</t>
+          <t>0.0754</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -2766,36 +2892,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008091</t>
+          <t>003345</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中信保诚红利精选混合A</t>
+          <t>安信新成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90.83</t>
+          <t>29.19</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0669</t>
+          <t>0.0575</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -2814,22 +2940,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>82.45</t>
+          <t>87.51</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0321</t>
+          <t>0.0322</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -2842,36 +2968,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009767</t>
+          <t>003346</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>安信平稳双利3个月持有期混合C</t>
+          <t>安信新成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23.74</t>
+          <t>29.19</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0320</t>
+          <t>0.0269</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -2880,36 +3006,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008092</t>
+          <t>009767</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中信保诚红利精选混合C</t>
+          <t>安信平稳双利3个月持有期混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>90.83</t>
+          <t>29.74</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0315</t>
+          <t>0.0212</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -2918,36 +3044,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>003346</t>
+          <t>008092</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>安信新成长灵活配置混合C</t>
+          <t>中信保诚红利精选混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28.82</t>
+          <t>89.93</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0260</t>
+          <t>0.0147</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -2971,21 +3097,21 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>59.55</t>
+          <t>52.14</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6.87</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0055</t>
+          <t>0.0045</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -3004,26 +3130,24 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>59.55</t>
+          <t>52.14</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3058,7 +3182,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3103,17 +3227,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.90</t>
+          <t>77.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.19</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.2018</t>
+          <t>4.3880</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -3136,22 +3260,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>71.63</t>
+          <t>69.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.90</t>
+          <t>77.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.19</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.7176</t>
+          <t>3.7474</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -3174,22 +3298,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26.91</t>
+          <t>25.99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.35</t>
+          <t>78.54</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.3428</t>
+          <t>1.3593</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -3202,32 +3326,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.19</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>91.21</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.74</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5410</t>
+          <t>0.7885</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -3240,36 +3364,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>167508</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>安信价值发现两年定期开放混合（LOF）</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.66</t>
+          <t>91.21</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2799</t>
+          <t>0.3233</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -3278,36 +3402,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>167508</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>90.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.74</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2124</t>
+          <t>0.2811</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -3326,22 +3450,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.74</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>29.74</t>
+          <t>23.74</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1974</t>
+          <t>0.1135</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -3354,32 +3478,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003028</t>
+          <t>003345</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>安信新优选灵活配置混合A</t>
+          <t>安信新成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>7.32</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>33.94</t>
+          <t>28.82</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1017</t>
+          <t>0.0886</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -3392,12 +3516,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003029</t>
+          <t>003028</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>安信新优选灵活配置混合C</t>
+          <t>安信新优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -3407,7 +3531,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>33.94</t>
+          <t>34.42</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -3421,7 +3545,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -3430,36 +3554,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008091</t>
+          <t>003029</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中信保诚红利精选混合A</t>
+          <t>安信新优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89.93</t>
+          <t>34.42</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0754</t>
+          <t>0.0755</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -3468,36 +3592,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003345</t>
+          <t>008091</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>安信新成长灵活配置混合A</t>
+          <t>中信保诚红利精选混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29.19</t>
+          <t>90.83</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0575</t>
+          <t>0.0669</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -3516,22 +3640,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>87.51</t>
+          <t>82.45</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0322</t>
+          <t>0.0321</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -3544,36 +3668,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>003346</t>
+          <t>009767</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>安信新成长灵活配置混合C</t>
+          <t>安信平稳双利3个月持有期混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>29.19</t>
+          <t>23.74</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0269</t>
+          <t>0.0320</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -3582,36 +3706,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009767</t>
+          <t>008092</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>安信平稳双利3个月持有期混合C</t>
+          <t>中信保诚红利精选混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>29.74</t>
+          <t>90.83</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0212</t>
+          <t>0.0315</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -3620,36 +3744,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008092</t>
+          <t>003346</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中信保诚红利精选混合C</t>
+          <t>安信新成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>89.93</t>
+          <t>28.82</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0147</t>
+          <t>0.0260</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -3673,21 +3797,21 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>52.14</t>
+          <t>59.55</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>6.87</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0045</t>
+          <t>0.0055</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -3706,24 +3830,26 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>52.14</t>
+          <t>59.55</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3737,7 +3863,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3758,7 +3884,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3798,26 +3924,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>69.33</t>
+          <t>87.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.32</t>
+          <t>87.87</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.1892</t>
+          <t>5.0055</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3836,26 +3962,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>59.71</t>
+          <t>74.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>74.32</t>
+          <t>87.87</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.7467</t>
+          <t>4.2430</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3874,26 +4000,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22.26</t>
+          <t>27.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>78.45</t>
+          <t>87.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.9772</t>
+          <t>1.5518</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3912,26 +4038,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.61</t>
+          <t>16.18</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>85.59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.70</t>
+          <t>8.94</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7491</t>
+          <t>1.4465</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3940,36 +4066,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>167508</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>安信价值发现两年定期开放混合（LOF）</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.42</t>
+          <t>85.59</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>8.94</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3079</t>
+          <t>0.6043</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -3978,36 +4104,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>008091</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>中信保诚红利精选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>92.59</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.70</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3002</t>
+          <t>0.0905</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -4016,36 +4142,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>161609</t>
+          <t>008092</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>融通动力先锋混合</t>
+          <t>中信保诚红利精选混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>80.93</t>
+          <t>92.59</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2286</t>
+          <t>0.0496</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -4054,36 +4180,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009766</t>
+          <t>003028</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>安信平稳双利3个月持有期混合A</t>
+          <t>安信新优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>39.45</t>
+          <t>33.39</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1146</t>
+          <t>0.0479</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -4092,36 +4218,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001152</t>
+          <t>003029</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>融通新区域新经济灵活配置混合</t>
+          <t>安信新优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>80.98</t>
+          <t>33.39</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0902</t>
+          <t>0.0472</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -4130,32 +4256,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>510081</t>
+          <t>009766</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长盛动态精选混合</t>
+          <t>安信平稳双利3个月持有期混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>60.76</t>
+          <t>29.19</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0901</t>
+          <t>0.0456</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -4168,36 +4294,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003345</t>
+          <t>004393</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>安信新成长灵活配置混合A</t>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>30.76</t>
+          <t>85.47</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0890</t>
+          <t>0.0259</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -4206,32 +4332,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001891</t>
+          <t>009767</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
+          <t>安信平稳双利3个月持有期混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>29.19</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0763</t>
+          <t>0.0094</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -4244,36 +4370,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>750005</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>安信平稳增长混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>55.64</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0763</t>
+          <t>0.0052</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -4282,300 +4408,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001715</t>
+          <t>002035</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>工银瑞信新焦点灵活配置混合A</t>
+          <t>安信平稳增长混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>55.64</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0690</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004393</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>安信合作创新主题沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>89.26</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0298</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004249</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>89.89</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0261</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>003346</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>安信新成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>30.76</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0168</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001998</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>工银瑞信新焦点灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>89.10</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0160</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009767</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>安信平稳双利3个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>39.45</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0128</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>750005</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>安信平稳增长混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>65.16</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.92</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002035</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>安信平稳增长混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>65.16</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.92</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -4589,7 +4451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4610,7 +4472,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -4650,26 +4512,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>73.84</t>
+          <t>83.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.35</t>
+          <t>86.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.0717</t>
+          <t>5.2446</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -4688,26 +4550,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>63.81</t>
+          <t>70.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.35</t>
+          <t>86.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.6545</t>
+          <t>4.4227</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -4726,26 +4588,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23.97</t>
+          <t>26.46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.23</t>
+          <t>85.79</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.9396</t>
+          <t>1.6246</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4764,26 +4626,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.93</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.10</t>
+          <t>90.99</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.96</t>
+          <t>9.68</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8700</t>
+          <t>0.7783</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -4792,36 +4654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>290002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>泰信先行策略混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>9.83</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.10</t>
+          <t>63.08</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.96</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4481</t>
+          <t>0.4050</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -4830,36 +4692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001186</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国文体健康股票A</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12.51</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84.20</t>
+          <t>90.99</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>9.68</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3540</t>
+          <t>0.2962</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -4868,36 +4730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>217024</t>
+          <t>121002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>招商安盈债券</t>
+          <t>国投瑞银景气行业混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>36.70</t>
+          <t>9.11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>20.13</t>
+          <t>57.36</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2826</t>
+          <t>0.1922</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -4906,36 +4768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>121010</t>
+          <t>008091</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国投瑞银瑞源灵活配置混合</t>
+          <t>中信保诚红利精选混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10.96</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>74.32</t>
+          <t>88.79</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2411</t>
+          <t>0.0947</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -4944,36 +4806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>167508</t>
+          <t>008893</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>安信价值发现两年定期开放混合（LOF）</t>
+          <t>创金合信鑫利混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>86.85</t>
+          <t>45.01</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2340</t>
+          <t>0.0868</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -4982,36 +4844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>003345</t>
+          <t>008092</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>安信新成长灵活配置混合A</t>
+          <t>中信保诚红利精选混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.28</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>33.00</t>
+          <t>88.79</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1055</t>
+          <t>0.0698</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -5020,32 +4882,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003028</t>
+          <t>162205</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>安信新优选灵活配置混合A</t>
+          <t>泰达宏利风险预算混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>35.05</t>
+          <t>28.61</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0898</t>
+          <t>0.0691</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -5058,36 +4920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>003029</t>
+          <t>003028</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>安信新优选灵活配置混合C</t>
+          <t>安信新优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>35.05</t>
+          <t>34.57</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0881</t>
+          <t>0.0444</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -5096,32 +4958,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>003029</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>安信新优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>34.57</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0753</t>
+          <t>0.0439</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -5134,36 +4996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001399</t>
+          <t>000507</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>安信鑫安得利灵活配置混合A</t>
+          <t>泰达宏利宏达混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>27.23</t>
+          <t>24.78</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0516</t>
+          <t>0.0373</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -5172,36 +5034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009766</t>
+          <t>004393</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>安信平稳双利3个月持有期混合A</t>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>32.18</t>
+          <t>76.71</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0513</t>
+          <t>0.0216</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -5210,36 +5072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>004393</t>
+          <t>008894</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>安信合作创新主题沪港深灵活配置混合</t>
+          <t>创金合信鑫利混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>87.08</t>
+          <t>45.01</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0329</t>
+          <t>0.0211</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -5248,32 +5110,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>004249</t>
+          <t>003912</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
+          <t>泰达宏利启富灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>88.16</t>
+          <t>36.61</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0312</t>
+          <t>0.0135</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -5286,36 +5148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001400</t>
+          <t>008909</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>安信鑫安得利灵活配置混合C</t>
+          <t>创金合信鑫益混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>27.23</t>
+          <t>67.63</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0283</t>
+          <t>0.0126</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -5324,36 +5186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>003346</t>
+          <t>000508</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>安信新成长灵活配置混合C</t>
+          <t>泰达宏利宏达混合B</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>33.00</t>
+          <t>24.78</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0178</t>
+          <t>0.0107</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -5362,32 +5224,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>001891</t>
+          <t>008910</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
+          <t>创金合信鑫益混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>67.63</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0168</t>
+          <t>0.0085</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -5400,36 +5262,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009767</t>
+          <t>162211</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>安信平稳双利3个月持有期混合C</t>
+          <t>泰达宏利品质生活混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>32.18</t>
+          <t>79.69</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0108</t>
+          <t>0.0055</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -5438,148 +5300,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>011125</t>
+          <t>003913</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>富国文体健康股票C</t>
+          <t>泰达宏利启富灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>84.20</t>
+          <t>36.61</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0096</t>
+          <t>0.0018</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>750005</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>安信平稳增长混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>57.39</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>012233</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>招商安盈债券C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>20.13</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>002035</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>安信平稳增长混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>57.39</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -5593,7 +5343,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5604,17 +5354,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5624,14 +5394,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.710000000000001</v>
+          <t>910007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2869</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -5640,14 +5432,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.210000000000001</v>
+          <t>007887</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2869</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -5656,14 +5470,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.9</v>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6735</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -5672,14 +5508,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.44</v>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3256</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -5688,14 +5546,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>14</v>
-      </c>
-      <c r="D6" t="n">
-        <v>13.17</v>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2794</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -5704,14 +5584,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>22</v>
-      </c>
-      <c r="D7" t="n">
-        <v>13.5</v>
+          <t>008091</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1722</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -5720,14 +5622,112 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>000551</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信诚幸福消费混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008092</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
-      </c>
-      <c r="D8" t="n">
-        <v>12.21</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600612-老凤祥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600612-老凤祥.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>9.710000000000001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>9.210000000000001</v>
+        <v>9.710000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>10.9</v>
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>11.44</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>13.17</v>
+        <v>11.44</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>13.5</v>
+        <v>13.17</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>22</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>12.21</v>
       </c>
     </row>
@@ -600,6 +617,1278 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9990</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6974</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5262</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5130</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4298</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3300</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3124</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2207</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2143</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>32.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>30.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信企业价值优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信中国制造混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>32.19</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>30.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005039</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>22.11</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>58.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005040</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22.11</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>58.57</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1603,7 +2892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2447,706 +3736,6 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>910007</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方红启元三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>80.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.90</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.2018</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007887</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方红启元三年持有期混合B</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>71.63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>81.90</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.7176</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>169107</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东方红恒阳五年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>26.91</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.35</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.3428</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002207</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.74</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5410</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>167508</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>安信价值发现两年定期开放混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.66</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2799</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001302</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.74</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2124</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009766</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>安信平稳双利3个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.74</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>29.74</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1974</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003028</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>安信新优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>33.94</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1017</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003029</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>安信新优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>33.94</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0765</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008091</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中信保诚红利精选混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.93</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0754</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003345</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>安信新成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>29.19</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0575</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004393</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>安信合作创新主题沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>87.51</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0322</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003346</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>安信新成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>29.19</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0269</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009767</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>安信平稳双利3个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>29.74</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0212</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008092</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中信保诚红利精选混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>89.93</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0147</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>750005</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>安信平稳增长混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>52.14</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002035</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>安信平稳增长混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>52.14</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3182,7 +3771,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3227,17 +3816,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>77.04</t>
+          <t>81.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.3880</t>
+          <t>4.2018</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -3260,22 +3849,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>69.14</t>
+          <t>71.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77.04</t>
+          <t>81.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.7474</t>
+          <t>3.7176</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -3298,22 +3887,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25.99</t>
+          <t>26.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>78.54</t>
+          <t>85.35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.3593</t>
+          <t>1.3428</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -3326,32 +3915,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>8.74</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7885</t>
+          <t>0.5410</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -3364,36 +3953,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>167508</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>91.66</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3233</t>
+          <t>0.2799</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -3402,36 +3991,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>167508</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>安信价值发现两年定期开放混合（LOF）</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>8.74</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2811</t>
+          <t>0.2124</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -3450,22 +4039,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>23.74</t>
+          <t>29.74</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1135</t>
+          <t>0.1974</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -3478,32 +4067,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003345</t>
+          <t>003028</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>安信新成长灵活配置混合A</t>
+          <t>安信新优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7.32</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28.82</t>
+          <t>33.94</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0886</t>
+          <t>0.1017</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -3516,12 +4105,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003028</t>
+          <t>003029</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>安信新优选灵活配置混合A</t>
+          <t>安信新优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -3531,7 +4120,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>34.42</t>
+          <t>33.94</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -3545,7 +4134,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -3554,36 +4143,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>003029</t>
+          <t>008091</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>安信新优选灵活配置混合C</t>
+          <t>中信保诚红利精选混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>34.42</t>
+          <t>89.93</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0755</t>
+          <t>0.0754</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -3592,36 +4181,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008091</t>
+          <t>003345</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中信保诚红利精选混合A</t>
+          <t>安信新成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90.83</t>
+          <t>29.19</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0669</t>
+          <t>0.0575</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -3640,22 +4229,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>82.45</t>
+          <t>87.51</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0321</t>
+          <t>0.0322</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -3668,36 +4257,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009767</t>
+          <t>003346</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>安信平稳双利3个月持有期混合C</t>
+          <t>安信新成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23.74</t>
+          <t>29.19</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0320</t>
+          <t>0.0269</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -3706,36 +4295,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008092</t>
+          <t>009767</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中信保诚红利精选混合C</t>
+          <t>安信平稳双利3个月持有期混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>90.83</t>
+          <t>29.74</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0315</t>
+          <t>0.0212</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -3744,36 +4333,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>003346</t>
+          <t>008092</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>安信新成长灵活配置混合C</t>
+          <t>中信保诚红利精选混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28.82</t>
+          <t>89.93</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0260</t>
+          <t>0.0147</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -3797,21 +4386,21 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>59.55</t>
+          <t>52.14</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6.87</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0055</t>
+          <t>0.0045</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -3830,26 +4419,24 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>59.55</t>
+          <t>52.14</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3858,6 +4445,708 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>910007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3880</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007887</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7474</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3593</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7885</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3233</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2811</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>28.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008091</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008092</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>59.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>59.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4445,7 +5734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5337,7 +6626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600612-老凤祥.xlsx
+++ b/数据整理/stocks/A股/上证主板/600612-老凤祥.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>9.710000000000001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>9.210000000000001</v>
+        <v>9.710000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>10.9</v>
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>11.44</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>13.17</v>
+        <v>11.44</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>13.5</v>
+        <v>13.17</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,428 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>22</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>9</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>12.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>910007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2869</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007887</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2869</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6735</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3256</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2794</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008091</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1722</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000551</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信诚幸福消费混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008092</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信中国制造2025沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1032,1126 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8355</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5464</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5280</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3363</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2815</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2292</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2206</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>32.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004249</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信中国制造混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信企业价值优选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009103</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏扬红利优选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009102</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏扬红利优选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004731</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家瑞尧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004732</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家瑞尧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>32.48</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>58.77</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>58.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1888,7 +3423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2892,7 +4427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3736,706 +5271,6 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>910007</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方红启元三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>80.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.90</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.2018</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007887</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方红启元三年持有期混合B</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>71.63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>81.90</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.7176</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>169107</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东方红恒阳五年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>26.91</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>85.35</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.3428</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002207</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.74</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5410</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>167508</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>安信价值发现两年定期开放混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.66</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2799</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001302</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.74</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2124</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009766</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>安信平稳双利3个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.74</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>29.74</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1974</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003028</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>安信新优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>33.94</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1017</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003029</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>安信新优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>33.94</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0765</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008091</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中信保诚红利精选混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.93</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0754</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003345</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>安信新成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>29.19</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0575</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004393</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>安信合作创新主题沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>87.51</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0322</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003346</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>安信新成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>29.19</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0269</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009767</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>安信平稳双利3个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>29.74</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0212</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008092</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中信保诚红利精选混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>89.93</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0147</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>750005</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>安信平稳增长混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>52.14</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002035</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>安信平稳增长混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>52.14</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4471,7 +5306,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -4516,17 +5351,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>77.04</t>
+          <t>81.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.3880</t>
+          <t>4.2018</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -4549,22 +5384,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>69.14</t>
+          <t>71.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77.04</t>
+          <t>81.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.7474</t>
+          <t>3.7176</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -4587,22 +5422,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25.99</t>
+          <t>26.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>78.54</t>
+          <t>85.35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.3593</t>
+          <t>1.3428</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -4615,32 +5450,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>8.74</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7885</t>
+          <t>0.5410</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -4653,36 +5488,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>167508</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>91.66</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3233</t>
+          <t>0.2799</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -4691,36 +5526,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>167508</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>安信价值发现两年定期开放混合（LOF）</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.00</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>8.74</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2811</t>
+          <t>0.2124</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -4739,22 +5574,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>23.74</t>
+          <t>29.74</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1135</t>
+          <t>0.1974</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -4767,32 +5602,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003345</t>
+          <t>003028</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>安信新成长灵活配置混合A</t>
+          <t>安信新优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7.32</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28.82</t>
+          <t>33.94</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0886</t>
+          <t>0.1017</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -4805,12 +5640,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003028</t>
+          <t>003029</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>安信新优选灵活配置混合A</t>
+          <t>安信新优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -4820,7 +5655,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>34.42</t>
+          <t>33.94</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -4834,7 +5669,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -4843,36 +5678,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>003029</t>
+          <t>008091</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>安信新优选灵活配置混合C</t>
+          <t>中信保诚红利精选混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>34.42</t>
+          <t>89.93</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0755</t>
+          <t>0.0754</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -4881,36 +5716,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008091</t>
+          <t>003345</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中信保诚红利精选混合A</t>
+          <t>安信新成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90.83</t>
+          <t>29.19</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0669</t>
+          <t>0.0575</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -4929,22 +5764,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>82.45</t>
+          <t>87.51</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0321</t>
+          <t>0.0322</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -4957,36 +5792,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009767</t>
+          <t>003346</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>安信平稳双利3个月持有期混合C</t>
+          <t>安信新成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23.74</t>
+          <t>29.19</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0320</t>
+          <t>0.0269</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -4995,36 +5830,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008092</t>
+          <t>009767</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中信保诚红利精选混合C</t>
+          <t>安信平稳双利3个月持有期混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>90.83</t>
+          <t>29.74</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0315</t>
+          <t>0.0212</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -5033,36 +5868,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>003346</t>
+          <t>008092</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>安信新成长灵活配置混合C</t>
+          <t>中信保诚红利精选混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28.82</t>
+          <t>89.93</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0260</t>
+          <t>0.0147</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -5086,21 +5921,21 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>59.55</t>
+          <t>52.14</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6.87</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0055</t>
+          <t>0.0045</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -5119,26 +5954,24 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>59.55</t>
+          <t>52.14</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5147,6 +5980,708 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>910007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3880</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007887</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启元三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7474</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3593</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7885</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3233</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2811</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>28.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008091</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008092</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信保诚红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>59.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>59.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5734,7 +7269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6624,402 +8159,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>910007</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方红启元三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>88.39</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.23</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.2869</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007887</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方红启元三年持有期混合B</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>88.39</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.23</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.85</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4.2869</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001302</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>18.33</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.13</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.6735</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>169107</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东方红恒阳五年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>27.79</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.31</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.3256</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002207</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>9.13</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2794</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008091</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中信保诚红利精选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>88.62</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1722</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000551</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>信诚幸福消费混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>87.86</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1082</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008092</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中信保诚红利精选混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.62</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0711</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004249</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>安信中国制造2025沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>80.01</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0100</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>